--- a/doc/ue_render_view.xlsx
+++ b/doc/ue_render_view.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030FE681-C4F0-4A76-B9A4-70A0EAA6772C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55440898-02CE-4EDD-9182-71A6E2E76EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="IOS" sheetId="2" r:id="rId2"/>
-    <sheet name="Android" sheetId="3" r:id="rId3"/>
+    <sheet name="Android-OpenGLES" sheetId="3" r:id="rId3"/>
+    <sheet name="Android-VK" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>主要搞清楚UE在各个移动平台上，最终的渲染怎么和平台的自身的SurfaceView联系在一起的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,91 +37,248 @@
     <t>void FIOSPlatformMisc::PlatformInit()</t>
   </si>
   <si>
+    <t>初始化各种目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAppEntry::PlatformInit()</t>
+  </si>
+  <si>
+    <t>// call a function in the main thread to do some processing that needs to happen there, now that the .ini files are loaded</t>
+  </si>
+  <si>
+    <t>dispatch_async(dispatch_get_main_queue(), ^{ MainThreadInit(); });</t>
+  </si>
+  <si>
+    <t>发起一个操作到IOS的主线程执行-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建AppDelegate.IOSView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入到跟节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// set the GL context to this thread</t>
+  </si>
+  <si>
+    <t>[AppDelegate.IOSView MakeCurrent];</t>
+  </si>
+  <si>
+    <t>绑定到当前线程？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOSView.h</t>
+  </si>
+  <si>
+    <t>id&lt;CAMetalDrawable&gt; FMetalViewport::GetDrawable(EMetalViewportAccessFlag Accessor)</t>
+  </si>
+  <si>
+    <t>CGSize Size;</t>
+  </si>
+  <si>
+    <t>IOSAppDelegate* AppDelegate = [IOSAppDelegate GetDelegate];</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>Drawable = [AppDelegate.IOSView MakeDrawable];</t>
+  </si>
+  <si>
+    <t>if (Drawable != nil)</t>
+  </si>
+  <si>
+    <t>Size.width = Drawable.texture.width;</t>
+  </si>
+  <si>
+    <t>Size.height = Drawable.texture.height;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>FPlatformProcess::SleepNoStats(0.001f);</t>
+  </si>
+  <si>
+    <t>while (Drawable == nil || Size.width != BackBuffer[GetViewportIndex(Accessor)]-&gt;GetSizeX() || Size.height != BackBuffer[GetViewportIndex(Accessor)]-&gt;GetSizeY());</t>
+  </si>
+  <si>
+    <t>创建Drawable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FAppEntry::PlatformInit();</t>
-  </si>
-  <si>
-    <t>初始化各种目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FAppEntry::PlatformInit()</t>
-  </si>
-  <si>
-    <t>// call a function in the main thread to do some processing that needs to happen there, now that the .ini files are loaded</t>
-  </si>
-  <si>
-    <t>dispatch_async(dispatch_get_main_queue(), ^{ MainThreadInit(); });</t>
-  </si>
-  <si>
-    <t>发起一个操作到IOS的主线程执行-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建AppDelegate.IOSView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入到跟节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// set the GL context to this thread</t>
-  </si>
-  <si>
-    <t>[AppDelegate.IOSView MakeCurrent];</t>
-  </si>
-  <si>
-    <t>绑定到当前线程？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOSView.h</t>
-  </si>
-  <si>
-    <t>id&lt;CAMetalDrawable&gt; FMetalViewport::GetDrawable(EMetalViewportAccessFlag Accessor)</t>
-  </si>
-  <si>
-    <t>CGSize Size;</t>
-  </si>
-  <si>
-    <t>IOSAppDelegate* AppDelegate = [IOSAppDelegate GetDelegate];</t>
-  </si>
-  <si>
-    <t>do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAndroidMisc::PlatformPreInit()</t>
+  </si>
+  <si>
+    <t>FAndroidCrashContext::Initialize();</t>
+  </si>
+  <si>
+    <t>FGenericPlatformMisc::PlatformPreInit();</t>
+  </si>
+  <si>
+    <t>EstablishVulkanDeviceSupport();</t>
+  </si>
+  <si>
+    <t>FAndroidAppEntry::PlatformInit();</t>
+  </si>
+  <si>
+    <t>// Try to create an ES3.2 EGL here for gpu queries and don't have to recreate the GL context.</t>
+  </si>
+  <si>
+    <t>AndroidEGL::GetInstance()-&gt;Init(AndroidEGL::AV_OpenGLES, 3, 2, false);</t>
+  </si>
+  <si>
+    <t>class FAndroidGPUInfo</t>
+  </si>
+  <si>
+    <t>FAndroidGPUInfo()</t>
   </si>
   <si>
     <t>{</t>
-  </si>
-  <si>
-    <t>Drawable = [AppDelegate.IOSView MakeDrawable];</t>
-  </si>
-  <si>
-    <t>if (Drawable != nil)</t>
-  </si>
-  <si>
-    <t>Size.width = Drawable.texture.width;</t>
-  </si>
-  <si>
-    <t>Size.height = Drawable.texture.height;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>}</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>FPlatformProcess::SleepNoStats(0.001f);</t>
-  </si>
-  <si>
-    <t>while (Drawable == nil || Size.width != BackBuffer[GetViewportIndex(Accessor)]-&gt;GetSizeX() || Size.height != BackBuffer[GetViewportIndex(Accessor)]-&gt;GetSizeY());</t>
-  </si>
-  <si>
-    <t>创建Drawable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// make sure GL is started so we can get the supported formats</t>
+  </si>
+  <si>
+    <t>AndroidEGL* EGL = AndroidEGL::GetInstance();</t>
+  </si>
+  <si>
+    <t>if (!EGL-&gt;IsInitialized())</t>
+  </si>
+  <si>
+    <t>构造函数内创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (FPlatformMisc::ShouldUseVulkan() || FPlatformMisc::ShouldUseDesktopVulkan())</t>
+  </si>
+  <si>
+    <t>// Vulkan is required, release the EGL created by FAndroidAppEntry::PlatformInit.</t>
+  </si>
+  <si>
+    <t>FAndroidAppEntry::ReleaseEGL();</t>
+  </si>
+  <si>
+    <t>DynamicRHIModule = &amp;FModuleManager::LoadModuleChecked&lt;IDynamicRHIModule&gt;(TEXT("VulkanRHI"));</t>
+  </si>
+  <si>
+    <t>if (!DynamicRHIModule-&gt;IsSupported())</t>
+  </si>
+  <si>
+    <t>DynamicRHIModule = &amp;FModuleManager::LoadModuleChecked&lt;IDynamicRHIModule&gt;(TEXT("OpenGLDrv"));</t>
+  </si>
+  <si>
+    <t>GraphicsRHI = TEXT("OpenGL");</t>
+  </si>
+  <si>
+    <t>RequestedFeatureLevel = FPlatformMisc::ShouldUseDesktopVulkan() ? ERHIFeatureLevel::SM5 : ERHIFeatureLevel::ES3_1;</t>
+  </si>
+  <si>
+    <t>GraphicsRHI = TEXT("Vulkan");</t>
+  </si>
+  <si>
+    <t>是否支持VK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (DynamicRHIModule)</t>
+  </si>
+  <si>
+    <t>FApp::SetGraphicsRHI(GraphicsRHI);</t>
+  </si>
+  <si>
+    <t>// Create the dynamic RHI.</t>
+  </si>
+  <si>
+    <t>DynamicRHI = DynamicRHIModule-&gt;CreateRHI(RequestedFeatureLevel);</t>
+  </si>
+  <si>
+    <t>创建对应的RHI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是OpenGL-ES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDynamicRHI* FOpenGLDynamicRHIModule::CreateRHI(ERHIFeatureLevel::Type InRequestedFeatureLevel)</t>
+  </si>
+  <si>
+    <t>GRequestedFeatureLevel = InRequestedFeatureLevel;</t>
+  </si>
+  <si>
+    <t>return new FOpenGLDynamicRHI();</t>
+  </si>
+  <si>
+    <t>创建FOpenGLDynamicRHI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数内，执行PlatformInitOpenGL();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool PlatformInitOpenGL()</t>
+  </si>
+  <si>
+    <t>FAndroidGPUInfo::Get().GLVersion.Split(TEXT("OpenGL ES "), nullptr, &amp;FullVersionString);</t>
+  </si>
+  <si>
+    <t>调用了FAndroidGPUInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会创建全局的静态对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDynamicRHI* PlatformCreateDynamicRHI()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void RHIInit(bool bHasEditorToken)</t>
+  </si>
+  <si>
+    <t>GDynamicRHI = PlatformCreateDynamicRHI();</t>
+  </si>
+  <si>
+    <t>int32 FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("RHIInit");</t>
+  </si>
+  <si>
+    <t>// Initialize the RHI.</t>
+  </si>
+  <si>
+    <t>RHIInit(bHasEditorToken);</t>
+  </si>
+  <si>
+    <t>void FAndroidAppEntry::PlatformInit()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +306,15 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -171,9 +338,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -476,12 +644,181 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B12A948-5916-46D4-8714-431513E3C810}">
-  <dimension ref="A1"/>
+  <dimension ref="B4:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -489,178 +826,392 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D89371-BCD7-46F6-BD94-7C2875D8CB79}">
-  <dimension ref="B4:E44"/>
+  <dimension ref="A2:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
-        <v>4</v>
+      <c r="D5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>2</v>
+      <c r="D6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>5</v>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+      <c r="C10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
+      <c r="B12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>6</v>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>7</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C55" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C649FA99-5CE2-45E2-945B-992B1AB4E305}">
+  <dimension ref="B5:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
